--- a/5.23-5.29.xlsx
+++ b/5.23-5.29.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="164">
   <si>
     <t>ID</t>
   </si>
@@ -95,9 +95,6 @@
   </si>
   <si>
     <t>Test</t>
-  </si>
-  <si>
-    <t>TEST</t>
   </si>
   <si>
     <t>KILL</t>
@@ -898,13 +895,15 @@
   <dimension ref="A1:S113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
@@ -986,10 +985,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="F3" t="s">
-        <v>21</v>
+        <v>48</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
@@ -997,7 +999,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
@@ -1005,7 +1013,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
@@ -1013,7 +1027,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
+      </c>
+      <c r="E6" s="8">
+        <v>4</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
@@ -1021,7 +1041,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
+      </c>
+      <c r="E7" s="8">
+        <v>5</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
@@ -1029,7 +1055,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
+      </c>
+      <c r="E8" s="8">
+        <v>6</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
@@ -1037,7 +1069,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="E9" s="8">
+        <v>7</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
@@ -1045,7 +1083,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
+      </c>
+      <c r="E10" s="8">
+        <v>8</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
@@ -1053,7 +1097,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
+      </c>
+      <c r="E11" s="8">
+        <v>9</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
@@ -1061,7 +1111,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
+      </c>
+      <c r="E12" s="8">
+        <v>10</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
@@ -1069,7 +1125,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
+      </c>
+      <c r="E13" s="8">
+        <v>11</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
@@ -1077,7 +1139,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
+      </c>
+      <c r="E14" s="8">
+        <v>12</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
@@ -1085,7 +1153,13 @@
         <v>13</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
+      </c>
+      <c r="E15" s="8">
+        <v>13</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
@@ -1093,519 +1167,861 @@
         <v>14</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+      <c r="E16" s="8">
+        <v>14</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>15</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+      <c r="E17" s="8">
+        <v>15</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>16</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+      <c r="E18" s="8">
+        <v>16</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>17</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+      <c r="E19" s="8">
+        <v>17</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>18</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="E20" s="8">
+        <v>18</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>19</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+      <c r="E21" s="8">
+        <v>19</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>20</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="E22" s="8">
+        <v>20</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <v>21</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="E23" s="8">
+        <v>21</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <v>22</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+      <c r="E24" s="8">
+        <v>22</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <v>23</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+      <c r="E25" s="8">
+        <v>23</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
         <v>24</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+      <c r="E26" s="8">
+        <v>24</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
         <v>25</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+      <c r="E27" s="8">
+        <v>25</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
         <v>26</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+      <c r="E28" s="8">
+        <v>26</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="8">
         <v>27</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+      <c r="E29" s="8">
+        <v>27</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="8">
         <v>28</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+      <c r="E30" s="8">
+        <v>28</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="8">
         <v>29</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+      <c r="E31" s="8">
+        <v>29</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="8">
         <v>30</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="E32" s="8">
+        <v>30</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="8">
         <v>31</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+      <c r="E33" s="8">
+        <v>31</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="8">
         <v>32</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="E34" s="8">
+        <v>32</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="8">
         <v>33</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+      <c r="E35" s="8">
+        <v>33</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="8">
         <v>34</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+      <c r="E36" s="8">
+        <v>34</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="8">
         <v>35</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+      <c r="E37" s="8">
+        <v>35</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="8">
         <v>36</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+      <c r="E38" s="8">
+        <v>36</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="8">
         <v>37</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+      <c r="E39" s="8">
+        <v>37</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="8">
         <v>38</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+      <c r="E40" s="8">
+        <v>38</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="8">
         <v>39</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+      <c r="E41" s="8">
+        <v>39</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="8">
         <v>40</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+      <c r="E42" s="8">
+        <v>40</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="8">
         <v>41</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+      <c r="E43" s="8">
+        <v>41</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="8">
         <v>42</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+      <c r="E44" s="8">
+        <v>42</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="8">
         <v>43</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+      <c r="E45" s="8">
+        <v>43</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="8">
         <v>44</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+      <c r="E46" s="8">
+        <v>44</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="8">
         <v>45</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+      <c r="E47" s="8">
+        <v>45</v>
+      </c>
+      <c r="F47" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="8">
         <v>46</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="E48" s="8">
+        <v>46</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="8">
         <v>47</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+      <c r="E49" s="8">
+        <v>47</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="8">
         <v>48</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+      <c r="E50" s="8">
+        <v>48</v>
+      </c>
+      <c r="F50" s="8" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="8">
         <v>49</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="E51" s="8">
+        <v>49</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="8">
         <v>50</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+      <c r="E52" s="8">
+        <v>50</v>
+      </c>
+      <c r="F52" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="8">
         <v>51</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+      <c r="E53" s="8">
+        <v>51</v>
+      </c>
+      <c r="F53" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="8">
         <v>52</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+      <c r="E54" s="8">
+        <v>52</v>
+      </c>
+      <c r="F54" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="8">
         <v>53</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+      <c r="E55" s="8">
+        <v>53</v>
+      </c>
+      <c r="F55" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="8">
         <v>54</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="E56" s="8">
+        <v>54</v>
+      </c>
+      <c r="F56" s="8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="8">
         <v>55</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+      <c r="E57" s="8">
+        <v>55</v>
+      </c>
+      <c r="F57" s="8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="8">
         <v>56</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="E58" s="8">
+        <v>56</v>
+      </c>
+      <c r="F58" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="8">
         <v>57</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+      <c r="E59" s="8">
+        <v>57</v>
+      </c>
+      <c r="F59" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="8">
         <v>58</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="E60" s="8">
+        <v>58</v>
+      </c>
+      <c r="F60" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="8">
         <v>59</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+      <c r="E61" s="8">
+        <v>59</v>
+      </c>
+      <c r="F61" s="8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="8">
         <v>60</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+      <c r="E62" s="8">
+        <v>60</v>
+      </c>
+      <c r="F62" s="8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="8">
         <v>61</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+      <c r="E63" s="8">
+        <v>61</v>
+      </c>
+      <c r="F63" s="8" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="8">
         <v>62</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+      <c r="E64" s="8">
+        <v>62</v>
+      </c>
+      <c r="F64" s="8" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="8">
         <v>63</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+      <c r="E65" s="8">
+        <v>63</v>
+      </c>
+      <c r="F65" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="8">
         <v>64</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+      <c r="E66" s="8">
+        <v>64</v>
+      </c>
+      <c r="F66" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="8">
         <v>65</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+      <c r="E67" s="8">
+        <v>65</v>
+      </c>
+      <c r="F67" s="8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="8">
         <v>66</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+      <c r="E68" s="8">
+        <v>66</v>
+      </c>
+      <c r="F68" s="8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="8">
         <v>67</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+      <c r="E69" s="8">
+        <v>67</v>
+      </c>
+      <c r="F69" s="8" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="8">
         <v>68</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+      <c r="E70" s="8">
+        <v>68</v>
+      </c>
+      <c r="F70" s="8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="8">
         <v>69</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="E71" s="8">
+        <v>69</v>
+      </c>
+      <c r="F71" s="8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="8">
         <v>70</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="E72" s="8">
+        <v>70</v>
+      </c>
+      <c r="F72" s="8" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="8">
         <v>71</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="8">
         <v>72</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="8">
         <v>73</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="8">
         <v>74</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="8">
         <v>75</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="8">
         <v>76</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="8">
         <v>77</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="8">
         <v>78</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -1613,7 +2029,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -1621,7 +2037,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -1629,7 +2045,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -1637,7 +2053,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -1645,7 +2061,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -1653,7 +2069,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -1661,7 +2077,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -1669,7 +2085,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -1677,7 +2093,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
@@ -1685,7 +2101,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -1693,7 +2109,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
@@ -1701,7 +2117,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -1709,7 +2125,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -1717,7 +2133,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
@@ -1725,7 +2141,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
@@ -1733,7 +2149,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
@@ -1741,7 +2157,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
@@ -1749,7 +2165,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -1757,7 +2173,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -1765,7 +2181,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
@@ -1773,7 +2189,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
@@ -1781,7 +2197,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
@@ -1789,7 +2205,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
@@ -1797,7 +2213,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
@@ -1805,7 +2221,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
@@ -1813,7 +2229,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
@@ -1821,7 +2237,7 @@
         <v>105</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
@@ -1829,7 +2245,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
@@ -1837,7 +2253,7 @@
         <v>107</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
@@ -1845,7 +2261,7 @@
         <v>108</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
@@ -1853,7 +2269,7 @@
         <v>109</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
@@ -1861,7 +2277,7 @@
         <v>110</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
@@ -1869,7 +2285,7 @@
         <v>111</v>
       </c>
       <c r="B113" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1966,7 +2382,7 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B2" s="12"/>
       <c r="C2" s="12"/>
@@ -1988,45 +2404,45 @@
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="J3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="L3" s="2"/>
       <c r="M3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="N3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O3" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B4" s="9">
         <v>2</v>
@@ -2036,7 +2452,7 @@
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F4" s="9">
         <v>1</v>
@@ -2046,7 +2462,7 @@
       </c>
       <c r="H4" s="8"/>
       <c r="I4" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J4" s="9">
         <v>2</v>
@@ -2056,7 +2472,7 @@
       </c>
       <c r="L4" s="8"/>
       <c r="M4" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N4" s="9">
         <v>4</v>
@@ -2067,7 +2483,7 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B5" s="9">
         <v>7</v>
@@ -2077,7 +2493,7 @@
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F5" s="9">
         <v>6</v>
@@ -2087,7 +2503,7 @@
       </c>
       <c r="H5" s="8"/>
       <c r="I5" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J5" s="10">
         <v>0</v>
@@ -2097,7 +2513,7 @@
       </c>
       <c r="L5" s="8"/>
       <c r="M5" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N5" s="10">
         <v>7</v>
@@ -2108,7 +2524,7 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B6" s="9">
         <v>2</v>
@@ -2118,7 +2534,7 @@
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F6" s="9">
         <v>14</v>
@@ -2128,7 +2544,7 @@
       </c>
       <c r="H6" s="8"/>
       <c r="I6" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J6" s="10">
         <v>1</v>
@@ -2138,7 +2554,7 @@
       </c>
       <c r="L6" s="8"/>
       <c r="M6" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N6" s="10">
         <v>7</v>
@@ -2149,7 +2565,7 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B7" s="9">
         <v>19</v>
@@ -2159,7 +2575,7 @@
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F7" s="9">
         <v>16</v>
@@ -2169,7 +2585,7 @@
       </c>
       <c r="H7" s="8"/>
       <c r="I7" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J7" s="9">
         <v>0</v>
@@ -2179,7 +2595,7 @@
       </c>
       <c r="L7" s="8"/>
       <c r="M7" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N7" s="10">
         <v>0</v>
@@ -2190,7 +2606,7 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B8" s="9">
         <v>0</v>
@@ -2200,7 +2616,7 @@
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" s="9">
         <v>0</v>
@@ -2210,7 +2626,7 @@
       </c>
       <c r="H8" s="8"/>
       <c r="I8" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J8" s="9">
         <v>15</v>
@@ -2220,7 +2636,7 @@
       </c>
       <c r="L8" s="8"/>
       <c r="M8" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N8" s="10">
         <v>6</v>
@@ -2231,7 +2647,7 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B9" s="9">
         <v>4</v>
@@ -2241,7 +2657,7 @@
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F9" s="9">
         <v>13</v>
@@ -2251,7 +2667,7 @@
       </c>
       <c r="H9" s="8"/>
       <c r="I9" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J9" s="9">
         <v>19</v>
@@ -2261,7 +2677,7 @@
       </c>
       <c r="L9" s="8"/>
       <c r="M9" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N9" s="9">
         <v>7</v>
@@ -2272,7 +2688,7 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B10" s="9">
         <v>15</v>
@@ -2282,7 +2698,7 @@
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F10" s="10">
         <v>4</v>
@@ -2292,7 +2708,7 @@
       </c>
       <c r="H10" s="8"/>
       <c r="I10" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J10" s="9">
         <v>1</v>
@@ -2302,7 +2718,7 @@
       </c>
       <c r="L10" s="8"/>
       <c r="M10" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N10" s="9">
         <v>12</v>
@@ -2313,7 +2729,7 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B11" s="9">
         <v>2</v>
@@ -2323,7 +2739,7 @@
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F11" s="9">
         <v>14</v>
@@ -2333,7 +2749,7 @@
       </c>
       <c r="H11" s="8"/>
       <c r="I11" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J11" s="9">
         <v>6</v>
@@ -2343,7 +2759,7 @@
       </c>
       <c r="L11" s="8"/>
       <c r="M11" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N11" s="9">
         <v>1</v>
@@ -2354,7 +2770,7 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B12" s="9">
         <v>0</v>
@@ -2364,7 +2780,7 @@
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F12" s="9">
         <v>4</v>
@@ -2374,7 +2790,7 @@
       </c>
       <c r="H12" s="8"/>
       <c r="I12" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J12" s="9">
         <v>5</v>
@@ -2384,7 +2800,7 @@
       </c>
       <c r="L12" s="8"/>
       <c r="M12" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N12" s="10">
         <v>7</v>
@@ -2395,7 +2811,7 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B13" s="9">
         <v>5</v>
@@ -2405,7 +2821,7 @@
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F13" s="9">
         <v>1</v>
@@ -2415,7 +2831,7 @@
       </c>
       <c r="H13" s="8"/>
       <c r="I13" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J13" s="9">
         <v>2</v>
@@ -2425,7 +2841,7 @@
       </c>
       <c r="L13" s="8"/>
       <c r="M13" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N13" s="10">
         <v>2</v>
@@ -2436,7 +2852,7 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B14" s="9">
         <v>4</v>
@@ -2446,7 +2862,7 @@
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F14" s="9">
         <v>1</v>
@@ -2456,7 +2872,7 @@
       </c>
       <c r="H14" s="8"/>
       <c r="I14" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J14" s="9">
         <v>1</v>
@@ -2466,7 +2882,7 @@
       </c>
       <c r="L14" s="8"/>
       <c r="M14" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N14" s="9">
         <v>11</v>
@@ -2477,7 +2893,7 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B15" s="9">
         <v>4</v>
@@ -2487,7 +2903,7 @@
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F15" s="9">
         <v>20</v>
@@ -2497,7 +2913,7 @@
       </c>
       <c r="H15" s="8"/>
       <c r="I15" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J15" s="9">
         <v>15</v>
@@ -2507,7 +2923,7 @@
       </c>
       <c r="L15" s="8"/>
       <c r="M15" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N15" s="10">
         <v>5</v>
@@ -2518,7 +2934,7 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B16" s="9">
         <v>3</v>
@@ -2528,7 +2944,7 @@
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F16" s="9">
         <v>94</v>
@@ -2538,7 +2954,7 @@
       </c>
       <c r="H16" s="8"/>
       <c r="I16" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J16" s="10">
         <v>1</v>
@@ -2548,7 +2964,7 @@
       </c>
       <c r="L16" s="8"/>
       <c r="M16" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N16" s="9">
         <v>9</v>
@@ -2559,7 +2975,7 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B17" s="10">
         <v>14</v>
@@ -2573,7 +2989,7 @@
       <c r="G17" s="10"/>
       <c r="H17" s="8"/>
       <c r="I17" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J17" s="9">
         <v>8</v>
@@ -2583,7 +2999,7 @@
       </c>
       <c r="L17" s="8"/>
       <c r="M17" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N17" s="9">
         <v>2</v>
@@ -2594,7 +3010,7 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B18" s="9">
         <v>2</v>
@@ -2608,7 +3024,7 @@
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
       <c r="I18" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J18" s="9">
         <v>2</v>
@@ -2618,7 +3034,7 @@
       </c>
       <c r="L18" s="8"/>
       <c r="M18" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N18" s="9">
         <v>16</v>
@@ -2629,7 +3045,7 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B19" s="9">
         <v>0</v>
@@ -2643,7 +3059,7 @@
       <c r="G19" s="10"/>
       <c r="H19" s="8"/>
       <c r="I19" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J19" s="9">
         <v>4</v>
@@ -2653,7 +3069,7 @@
       </c>
       <c r="L19" s="8"/>
       <c r="M19" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N19" s="9">
         <v>96</v>
@@ -2664,7 +3080,7 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B20" s="9">
         <v>23</v>
@@ -2678,7 +3094,7 @@
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
       <c r="I20" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J20" s="9">
         <v>6</v>
@@ -2693,7 +3109,7 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B21" s="10">
         <v>3</v>
@@ -2707,7 +3123,7 @@
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
       <c r="I21" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J21" s="9">
         <v>6</v>
@@ -2722,7 +3138,7 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B22" s="9">
         <v>9</v>
@@ -2736,7 +3152,7 @@
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
       <c r="I22" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J22" s="10">
         <v>15</v>
@@ -2751,7 +3167,7 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B23" s="9">
         <v>1</v>
@@ -2765,7 +3181,7 @@
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
       <c r="I23" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J23" s="10">
         <v>2</v>
@@ -2780,7 +3196,7 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B24" s="9">
         <v>1</v>
@@ -2794,7 +3210,7 @@
       <c r="G24" s="10"/>
       <c r="H24" s="8"/>
       <c r="I24" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J24" s="10">
         <v>7</v>
@@ -2809,7 +3225,7 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="10">
         <v>120</v>
@@ -2823,7 +3239,7 @@
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
       <c r="I25" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J25" s="10">
         <v>19</v>
@@ -2846,7 +3262,7 @@
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
       <c r="I26" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J26" s="9">
         <v>3</v>
@@ -2869,7 +3285,7 @@
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
       <c r="I27" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J27" s="9">
         <v>3</v>
@@ -2892,7 +3308,7 @@
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
       <c r="I28" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J28" s="10">
         <v>1</v>
@@ -2915,7 +3331,7 @@
       <c r="G29" s="10"/>
       <c r="H29" s="8"/>
       <c r="I29" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J29" s="10">
         <v>15</v>
@@ -2938,7 +3354,7 @@
       <c r="G30" s="8"/>
       <c r="H30" s="8"/>
       <c r="I30" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J30" s="9">
         <v>2</v>
@@ -2961,7 +3377,7 @@
       <c r="G31" s="8"/>
       <c r="H31" s="8"/>
       <c r="I31" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J31" s="9">
         <v>7</v>
@@ -2981,7 +3397,7 @@
       <c r="G32" s="8"/>
       <c r="H32" s="8"/>
       <c r="I32" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J32" s="10">
         <v>168</v>
@@ -3044,13 +3460,13 @@
         <v>19</v>
       </c>
       <c r="G1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>26</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
@@ -3059,7 +3475,7 @@
       </c>
       <c r="B2" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" s="4">
         <f>COUNTIF(盟会战!A$1:Q$150,$A2)</f>
@@ -3071,15 +3487,15 @@
       </c>
       <c r="E2" s="4">
         <f>SUM(B2:D2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G2" s="4">
         <f>IF($E2&gt;6,6,$E2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" s="4">
         <f>SUM(G2:G140)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J2" s="4">
         <f>SUM(E2:E140)-I2</f>
@@ -3129,13 +3545,13 @@
         <v>19</v>
       </c>
       <c r="G1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>26</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
@@ -3197,14 +3613,14 @@
         <v>19</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H1" s="4"/>
       <c r="I1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>26</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>27</v>
       </c>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
@@ -3277,13 +3693,13 @@
         <v>19</v>
       </c>
       <c r="G1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>26</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
@@ -3326,13 +3742,13 @@
         <v>6</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <f>('逐梦-箱子'!$I$2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="3">
         <f>('如梦-箱子'!$I$2)</f>
@@ -3348,7 +3764,7 @@
       </c>
       <c r="E2" s="3">
         <f>SUM(A2:D2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/5.23-5.29.xlsx
+++ b/5.23-5.29.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="掠夺总榜" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="198">
   <si>
     <t>ID</t>
   </si>
@@ -566,6 +566,66 @@
   </si>
   <si>
     <t>2016-05-24-轩狗</t>
+  </si>
+  <si>
+    <t>芝麻花生馅儿饺</t>
+  </si>
+  <si>
+    <t>只想做个好人</t>
+  </si>
+  <si>
+    <t>毕夏有毓</t>
+  </si>
+  <si>
+    <t>与尔同销萬古愁</t>
+  </si>
+  <si>
+    <t>他们不让玩神威</t>
+  </si>
+  <si>
+    <t>等我出轻语</t>
+  </si>
+  <si>
+    <t>那年红颜</t>
+  </si>
+  <si>
+    <t>绫月薇</t>
+  </si>
+  <si>
+    <t>纯情少妇马芳玲</t>
+  </si>
+  <si>
+    <t>慕容飞羽</t>
+  </si>
+  <si>
+    <t>淺笙</t>
+  </si>
+  <si>
+    <t>轻笑忘</t>
+  </si>
+  <si>
+    <t>叶菡</t>
+  </si>
+  <si>
+    <t>椛灯</t>
+  </si>
+  <si>
+    <t>轻素剪云端</t>
+  </si>
+  <si>
+    <t>雨ゞ铃霖</t>
+  </si>
+  <si>
+    <t>SouLmAte、小狼</t>
+  </si>
+  <si>
+    <t>怒怒怒怒火</t>
+  </si>
+  <si>
+    <t>妄于</t>
+  </si>
+  <si>
+    <t>牛奶奶奶奶</t>
   </si>
 </sst>
 </file>
@@ -621,7 +681,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -649,15 +709,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -942,1264 +1008,1814 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S113"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6" style="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6" style="10" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="10"/>
+    <col min="17" max="17" width="9.140625" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="E1" s="10" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="E1" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="I1" s="10" t="s">
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="I1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="M1" s="10" t="s">
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="M1" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="Q1" s="10" t="s">
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="Q1" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10"/>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+    </row>
+    <row r="2" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="Q2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="R2" t="s">
+      <c r="R2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="S2" t="s">
+      <c r="S2" s="12" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
+      <c r="A3" s="10">
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="10">
         <v>1</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>117</v>
       </c>
+      <c r="I3" s="14">
+        <v>1</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
+      <c r="A4" s="10">
         <v>2</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="10">
         <v>2</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>161</v>
       </c>
+      <c r="I4" s="14">
+        <v>2</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
+      <c r="A5" s="10">
         <v>3</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="10">
         <v>3</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>93</v>
       </c>
+      <c r="I5" s="14">
+        <v>3</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
+      <c r="A6" s="10">
         <v>4</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="10">
         <v>4</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>91</v>
       </c>
+      <c r="I6" s="14">
+        <v>4</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
+      <c r="A7" s="10">
         <v>5</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="10">
         <v>5</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>116</v>
       </c>
+      <c r="I7" s="14">
+        <v>5</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
+      <c r="A8" s="10">
         <v>6</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="10">
         <v>6</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>100</v>
       </c>
+      <c r="I8" s="14">
+        <v>6</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
+      <c r="A9" s="10">
         <v>7</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="10">
         <v>7</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>71</v>
       </c>
+      <c r="I9" s="14">
+        <v>7</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
+      <c r="A10" s="10">
         <v>8</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="10">
         <v>8</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>68</v>
       </c>
+      <c r="I10" s="14">
+        <v>8</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
+      <c r="A11" s="10">
         <v>9</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="10">
         <v>9</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>121</v>
       </c>
+      <c r="I11" s="14">
+        <v>9</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
+      <c r="A12" s="10">
         <v>10</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="10">
         <v>10</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>82</v>
       </c>
+      <c r="I12" s="14">
+        <v>10</v>
+      </c>
+      <c r="J12" s="11" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="7">
+      <c r="A13" s="10">
         <v>11</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="10">
         <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>87</v>
       </c>
+      <c r="I13" s="14">
+        <v>11</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="7">
+      <c r="A14" s="10">
         <v>12</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="10">
         <v>12</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>139</v>
       </c>
+      <c r="I14" s="14">
+        <v>12</v>
+      </c>
+      <c r="J14" s="11" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="7">
+      <c r="A15" s="10">
         <v>13</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="10">
         <v>13</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>96</v>
       </c>
+      <c r="I15" s="14">
+        <v>13</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="7">
+      <c r="A16" s="10">
         <v>14</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="10">
         <v>14</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="7">
+      <c r="I16" s="14">
+        <v>14</v>
+      </c>
+      <c r="J16" s="11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="10">
         <v>15</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="10">
         <v>15</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="7">
+      <c r="I17" s="14">
+        <v>15</v>
+      </c>
+      <c r="J17" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="10">
         <v>16</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18" s="10">
         <v>16</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="7">
+      <c r="I18" s="14">
+        <v>16</v>
+      </c>
+      <c r="J18" s="11" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="10">
         <v>17</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19" s="10">
         <v>17</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="7">
+      <c r="I19" s="14">
+        <v>17</v>
+      </c>
+      <c r="J19" s="11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="10">
         <v>18</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E20" s="10">
         <v>18</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="7">
+      <c r="I20" s="14">
+        <v>18</v>
+      </c>
+      <c r="J20" s="11" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="10">
         <v>19</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="E21" s="7">
+      <c r="E21" s="10">
         <v>19</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="7">
+      <c r="I21" s="14">
+        <v>19</v>
+      </c>
+      <c r="J21" s="11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="10">
         <v>20</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="E22" s="7">
+      <c r="E22" s="10">
         <v>20</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="7">
+      <c r="I22" s="14">
+        <v>20</v>
+      </c>
+      <c r="J22" s="11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="10">
         <v>21</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E23" s="10">
         <v>21</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="7">
+      <c r="I23" s="14">
+        <v>21</v>
+      </c>
+      <c r="J23" s="11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="10">
         <v>22</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="E24" s="7">
+      <c r="E24" s="10">
         <v>22</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="7">
+      <c r="I24" s="14">
+        <v>22</v>
+      </c>
+      <c r="J24" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="10">
         <v>23</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="E25" s="7">
+      <c r="E25" s="10">
         <v>23</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="7">
+      <c r="I25" s="14">
+        <v>23</v>
+      </c>
+      <c r="J25" s="11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="10">
         <v>24</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="E26" s="7">
+      <c r="E26" s="10">
         <v>24</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="7">
+      <c r="I26" s="14">
+        <v>24</v>
+      </c>
+      <c r="J26" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="10">
         <v>25</v>
       </c>
       <c r="B27" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="E27" s="7">
+      <c r="E27" s="10">
         <v>25</v>
       </c>
       <c r="F27" s="7" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="7">
+      <c r="I27" s="14">
+        <v>25</v>
+      </c>
+      <c r="J27" s="11" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="10">
         <v>26</v>
       </c>
       <c r="B28" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="E28" s="7">
+      <c r="E28" s="10">
         <v>26</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="7">
+      <c r="I28" s="14">
+        <v>26</v>
+      </c>
+      <c r="J28" s="11" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="10">
         <v>27</v>
       </c>
       <c r="B29" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="E29" s="7">
+      <c r="E29" s="10">
         <v>27</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="7">
+      <c r="I29" s="14">
+        <v>27</v>
+      </c>
+      <c r="J29" s="11" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="10">
         <v>28</v>
       </c>
       <c r="B30" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="E30" s="7">
+      <c r="E30" s="10">
         <v>28</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="7">
+      <c r="I30" s="14">
+        <v>28</v>
+      </c>
+      <c r="J30" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="10">
         <v>29</v>
       </c>
       <c r="B31" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="E31" s="7">
+      <c r="E31" s="10">
         <v>29</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="7">
+      <c r="I31" s="14">
+        <v>29</v>
+      </c>
+      <c r="J31" s="11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="10">
         <v>30</v>
       </c>
       <c r="B32" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="E32" s="7">
+      <c r="E32" s="10">
         <v>30</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="7">
+      <c r="I32" s="14">
+        <v>30</v>
+      </c>
+      <c r="J32" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="10">
         <v>31</v>
       </c>
       <c r="B33" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="E33" s="7">
+      <c r="E33" s="10">
         <v>31</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="7">
+      <c r="I33" s="14">
+        <v>31</v>
+      </c>
+      <c r="J33" s="11" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="10">
         <v>32</v>
       </c>
       <c r="B34" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="E34" s="7">
+      <c r="E34" s="10">
         <v>32</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="7">
+      <c r="I34" s="14">
+        <v>32</v>
+      </c>
+      <c r="J34" s="11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="10">
         <v>33</v>
       </c>
       <c r="B35" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="E35" s="7">
+      <c r="E35" s="10">
         <v>33</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="7">
+      <c r="I35" s="14">
+        <v>33</v>
+      </c>
+      <c r="J35" s="11" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="10">
         <v>34</v>
       </c>
       <c r="B36" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="E36" s="7">
+      <c r="E36" s="10">
         <v>34</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="7">
+      <c r="I36" s="14">
+        <v>34</v>
+      </c>
+      <c r="J36" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="10">
         <v>35</v>
       </c>
       <c r="B37" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="E37" s="7">
+      <c r="E37" s="10">
         <v>35</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="7">
+      <c r="I37" s="14">
+        <v>35</v>
+      </c>
+      <c r="J37" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="10">
         <v>36</v>
       </c>
       <c r="B38" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="E38" s="7">
+      <c r="E38" s="10">
         <v>36</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="7">
+      <c r="I38" s="14">
+        <v>36</v>
+      </c>
+      <c r="J38" s="11" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="10">
         <v>37</v>
       </c>
       <c r="B39" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="E39" s="7">
+      <c r="E39" s="10">
         <v>37</v>
       </c>
       <c r="F39" s="7" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="7">
+      <c r="I39" s="14">
+        <v>37</v>
+      </c>
+      <c r="J39" s="11" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="10">
         <v>38</v>
       </c>
       <c r="B40" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="E40" s="7">
+      <c r="E40" s="10">
         <v>38</v>
       </c>
       <c r="F40" s="7" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="7">
+      <c r="I40" s="14">
+        <v>38</v>
+      </c>
+      <c r="J40" s="11" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="10">
         <v>39</v>
       </c>
       <c r="B41" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="E41" s="7">
+      <c r="E41" s="10">
         <v>39</v>
       </c>
       <c r="F41" s="7" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="7">
+      <c r="I41" s="14">
+        <v>39</v>
+      </c>
+      <c r="J41" s="11" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="10">
         <v>40</v>
       </c>
       <c r="B42" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="E42" s="7">
+      <c r="E42" s="10">
         <v>40</v>
       </c>
       <c r="F42" s="7" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="7">
+      <c r="I42" s="14">
+        <v>40</v>
+      </c>
+      <c r="J42" s="11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="10">
         <v>41</v>
       </c>
       <c r="B43" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="E43" s="7">
+      <c r="E43" s="10">
         <v>41</v>
       </c>
       <c r="F43" s="7" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="7">
+      <c r="I43" s="14">
+        <v>41</v>
+      </c>
+      <c r="J43" s="11" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="10">
         <v>42</v>
       </c>
       <c r="B44" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="E44" s="7">
+      <c r="E44" s="10">
         <v>42</v>
       </c>
       <c r="F44" s="7" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="7">
+      <c r="I44" s="14">
+        <v>42</v>
+      </c>
+      <c r="J44" s="11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="10">
         <v>43</v>
       </c>
       <c r="B45" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="E45" s="7">
+      <c r="E45" s="10">
         <v>43</v>
       </c>
       <c r="F45" s="7" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="7">
+      <c r="I45" s="14">
+        <v>43</v>
+      </c>
+      <c r="J45" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="10">
         <v>44</v>
       </c>
       <c r="B46" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="E46" s="7">
+      <c r="E46" s="10">
         <v>44</v>
       </c>
       <c r="F46" s="7" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="7">
+      <c r="I46" s="14">
+        <v>44</v>
+      </c>
+      <c r="J46" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="10">
         <v>45</v>
       </c>
       <c r="B47" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="E47" s="7">
+      <c r="E47" s="10">
         <v>45</v>
       </c>
       <c r="F47" s="7" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="7">
+      <c r="I47" s="14">
+        <v>45</v>
+      </c>
+      <c r="J47" s="11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="10">
         <v>46</v>
       </c>
       <c r="B48" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="E48" s="7">
+      <c r="E48" s="10">
         <v>46</v>
       </c>
       <c r="F48" s="7" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="7">
+      <c r="I48" s="14">
+        <v>46</v>
+      </c>
+      <c r="J48" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="10">
         <v>47</v>
       </c>
       <c r="B49" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E49" s="7">
+      <c r="E49" s="10">
         <v>47</v>
       </c>
       <c r="F49" s="7" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="7">
+      <c r="I49" s="14">
+        <v>47</v>
+      </c>
+      <c r="J49" s="11" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="10">
         <v>48</v>
       </c>
       <c r="B50" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="E50" s="7">
+      <c r="E50" s="10">
         <v>48</v>
       </c>
       <c r="F50" s="7" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="7">
+      <c r="I50" s="14">
+        <v>48</v>
+      </c>
+      <c r="J50" s="11" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="10">
         <v>49</v>
       </c>
       <c r="B51" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="E51" s="7">
+      <c r="E51" s="10">
         <v>49</v>
       </c>
       <c r="F51" s="7" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="7">
+      <c r="I51" s="14">
+        <v>49</v>
+      </c>
+      <c r="J51" s="11" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="10">
         <v>50</v>
       </c>
       <c r="B52" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="E52" s="7">
+      <c r="E52" s="10">
         <v>50</v>
       </c>
       <c r="F52" s="7" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="7">
+      <c r="I52" s="14">
+        <v>50</v>
+      </c>
+      <c r="J52" s="11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="10">
         <v>51</v>
       </c>
       <c r="B53" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E53" s="7">
+      <c r="E53" s="10">
         <v>51</v>
       </c>
       <c r="F53" s="7" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="7">
+      <c r="I53" s="14">
+        <v>51</v>
+      </c>
+      <c r="J53" s="11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="10">
         <v>52</v>
       </c>
       <c r="B54" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="E54" s="7">
+      <c r="E54" s="10">
         <v>52</v>
       </c>
       <c r="F54" s="7" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="7">
+      <c r="I54" s="14">
+        <v>52</v>
+      </c>
+      <c r="J54" s="11" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="10">
         <v>53</v>
       </c>
       <c r="B55" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="E55" s="7">
+      <c r="E55" s="10">
         <v>53</v>
       </c>
       <c r="F55" s="7" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="7">
+      <c r="I55" s="14">
+        <v>53</v>
+      </c>
+      <c r="J55" s="11" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" s="10">
         <v>54</v>
       </c>
       <c r="B56" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="E56" s="7">
+      <c r="E56" s="10">
         <v>54</v>
       </c>
       <c r="F56" s="7" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="7">
+      <c r="I56" s="14">
+        <v>54</v>
+      </c>
+      <c r="J56" s="11" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" s="10">
         <v>55</v>
       </c>
       <c r="B57" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="E57" s="7">
+      <c r="E57" s="10">
         <v>55</v>
       </c>
       <c r="F57" s="7" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="7">
+      <c r="I57" s="14">
+        <v>55</v>
+      </c>
+      <c r="J57" s="11" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" s="10">
         <v>56</v>
       </c>
       <c r="B58" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="E58" s="7">
+      <c r="E58" s="10">
         <v>56</v>
       </c>
       <c r="F58" s="7" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="7">
+      <c r="I58" s="14">
+        <v>56</v>
+      </c>
+      <c r="J58" s="11" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" s="10">
         <v>57</v>
       </c>
       <c r="B59" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="E59" s="7">
+      <c r="E59" s="10">
         <v>57</v>
       </c>
       <c r="F59" s="7" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="7">
+      <c r="I59" s="14">
+        <v>57</v>
+      </c>
+      <c r="J59" s="11" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" s="10">
         <v>58</v>
       </c>
       <c r="B60" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E60" s="7">
+      <c r="E60" s="10">
         <v>58</v>
       </c>
       <c r="F60" s="7" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="7">
+      <c r="I60" s="14">
+        <v>58</v>
+      </c>
+      <c r="J60" s="11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" s="10">
         <v>59</v>
       </c>
       <c r="B61" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="E61" s="7">
+      <c r="E61" s="10">
         <v>59</v>
       </c>
       <c r="F61" s="7" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="7">
+      <c r="I61" s="14">
+        <v>59</v>
+      </c>
+      <c r="J61" s="11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62" s="10">
         <v>60</v>
       </c>
       <c r="B62" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="E62" s="7">
+      <c r="E62" s="10">
         <v>60</v>
       </c>
       <c r="F62" s="7" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="7">
+      <c r="I62" s="14">
+        <v>60</v>
+      </c>
+      <c r="J62" s="11" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63" s="10">
         <v>61</v>
       </c>
       <c r="B63" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="E63" s="7">
+      <c r="E63" s="10">
         <v>61</v>
       </c>
       <c r="F63" s="7" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="7">
+      <c r="I63" s="14">
+        <v>61</v>
+      </c>
+      <c r="J63" s="11" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64" s="10">
         <v>62</v>
       </c>
       <c r="B64" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="E64" s="7">
+      <c r="E64" s="10">
         <v>62</v>
       </c>
       <c r="F64" s="7" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="7">
+      <c r="I64" s="14">
+        <v>62</v>
+      </c>
+      <c r="J64" s="11" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65" s="10">
         <v>63</v>
       </c>
       <c r="B65" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E65" s="7">
+      <c r="E65" s="10">
         <v>63</v>
       </c>
       <c r="F65" s="7" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="7">
+      <c r="I65" s="14">
+        <v>63</v>
+      </c>
+      <c r="J65" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66" s="10">
         <v>64</v>
       </c>
       <c r="B66" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="E66" s="7">
+      <c r="E66" s="10">
         <v>64</v>
       </c>
       <c r="F66" s="7" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="7">
+      <c r="I66" s="14">
+        <v>64</v>
+      </c>
+      <c r="J66" s="11" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67" s="10">
         <v>65</v>
       </c>
       <c r="B67" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="E67" s="7">
+      <c r="E67" s="10">
         <v>65</v>
       </c>
       <c r="F67" s="7" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="7">
+      <c r="I67" s="14">
+        <v>65</v>
+      </c>
+      <c r="J67" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68" s="10">
         <v>66</v>
       </c>
       <c r="B68" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="E68" s="7">
+      <c r="E68" s="10">
         <v>66</v>
       </c>
       <c r="F68" s="7" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="7">
+      <c r="I68" s="14">
+        <v>66</v>
+      </c>
+      <c r="J68" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69" s="10">
         <v>67</v>
       </c>
       <c r="B69" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="E69" s="7">
+      <c r="E69" s="10">
         <v>67</v>
       </c>
       <c r="F69" s="7" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="7">
+      <c r="I69" s="14">
+        <v>67</v>
+      </c>
+      <c r="J69" s="11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A70" s="10">
         <v>68</v>
       </c>
       <c r="B70" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="E70" s="7">
+      <c r="E70" s="10">
         <v>68</v>
       </c>
       <c r="F70" s="7" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="7">
+      <c r="I70" s="14">
+        <v>68</v>
+      </c>
+      <c r="J70" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A71" s="10">
         <v>69</v>
       </c>
       <c r="B71" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="E71" s="7">
+      <c r="E71" s="10">
         <v>69</v>
       </c>
       <c r="F71" s="7" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="7">
+      <c r="I71" s="14">
+        <v>69</v>
+      </c>
+      <c r="J71" s="11" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A72" s="10">
         <v>70</v>
       </c>
       <c r="B72" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="E72" s="7">
+      <c r="E72" s="10">
         <v>70</v>
       </c>
       <c r="F72" s="7" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="7">
+      <c r="I72" s="14">
+        <v>70</v>
+      </c>
+      <c r="J72" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A73" s="10">
         <v>71</v>
       </c>
       <c r="B73" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="E73" s="7">
+      <c r="E73" s="10">
         <v>71</v>
       </c>
       <c r="F73" s="7" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="7">
+      <c r="I73" s="14">
+        <v>71</v>
+      </c>
+      <c r="J73" s="11" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A74" s="10">
         <v>72</v>
       </c>
       <c r="B74" s="7" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="7">
+      <c r="I74" s="14">
+        <v>72</v>
+      </c>
+      <c r="J74" s="11" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A75" s="10">
         <v>73</v>
       </c>
       <c r="B75" s="7" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="7">
+      <c r="I75" s="14">
+        <v>73</v>
+      </c>
+      <c r="J75" s="11" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A76" s="10">
         <v>74</v>
       </c>
       <c r="B76" s="7" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="7">
+      <c r="I76" s="14">
+        <v>74</v>
+      </c>
+      <c r="J76" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A77" s="10">
         <v>75</v>
       </c>
       <c r="B77" s="7" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="7">
+      <c r="I77" s="14">
+        <v>75</v>
+      </c>
+      <c r="J77" s="11" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A78" s="10">
         <v>76</v>
       </c>
       <c r="B78" s="7" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="7">
+      <c r="I78" s="14">
+        <v>76</v>
+      </c>
+      <c r="J78" s="11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A79" s="10">
         <v>77</v>
       </c>
       <c r="B79" s="7" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="7">
+      <c r="I79" s="14">
+        <v>77</v>
+      </c>
+      <c r="J79" s="11" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A80" s="10">
         <v>78</v>
       </c>
       <c r="B80" s="7" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="7">
+      <c r="I80" s="14">
+        <v>78</v>
+      </c>
+      <c r="J80" s="11" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A81" s="10">
         <v>79</v>
       </c>
       <c r="B81" s="7" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="7">
+      <c r="I81" s="14">
+        <v>79</v>
+      </c>
+      <c r="J81" s="11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A82" s="10">
         <v>80</v>
       </c>
       <c r="B82" s="7" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="7">
+      <c r="I82" s="14">
+        <v>80</v>
+      </c>
+      <c r="J82" s="11" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A83" s="10">
         <v>81</v>
       </c>
       <c r="B83" s="7" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="7">
+      <c r="I83" s="14">
+        <v>81</v>
+      </c>
+      <c r="J83" s="11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A84" s="10">
         <v>82</v>
       </c>
       <c r="B84" s="7" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="7">
+      <c r="I84" s="14">
+        <v>82</v>
+      </c>
+      <c r="J84" s="11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A85" s="10">
         <v>83</v>
       </c>
       <c r="B85" s="7" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="7">
+      <c r="I85" s="14">
+        <v>83</v>
+      </c>
+      <c r="J85" s="11" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A86" s="10">
         <v>84</v>
       </c>
       <c r="B86" s="7" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="7">
+      <c r="I86" s="14">
+        <v>84</v>
+      </c>
+      <c r="J86" s="11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A87" s="10">
         <v>85</v>
       </c>
       <c r="B87" s="7" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="7">
+      <c r="I87" s="14">
+        <v>85</v>
+      </c>
+      <c r="J87" s="11" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A88" s="10">
         <v>86</v>
       </c>
       <c r="B88" s="7" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="7">
+      <c r="I88" s="14">
+        <v>86</v>
+      </c>
+      <c r="J88" s="11" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A89" s="10">
         <v>87</v>
       </c>
       <c r="B89" s="7" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" s="7">
+      <c r="I89" s="14">
+        <v>87</v>
+      </c>
+      <c r="J89" s="11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A90" s="10">
         <v>88</v>
       </c>
       <c r="B90" s="7" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" s="7">
+      <c r="I90" s="14">
+        <v>88</v>
+      </c>
+      <c r="J90" s="11" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A91" s="10">
         <v>89</v>
       </c>
       <c r="B91" s="7" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" s="7">
+      <c r="I91" s="14">
+        <v>89</v>
+      </c>
+      <c r="J91" s="11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A92" s="10">
         <v>90</v>
       </c>
       <c r="B92" s="7" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="7">
+      <c r="I92" s="14">
+        <v>90</v>
+      </c>
+      <c r="J92" s="11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A93" s="10">
         <v>91</v>
       </c>
       <c r="B93" s="7" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" s="7">
+      <c r="I93" s="14">
+        <v>91</v>
+      </c>
+      <c r="J93" s="11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A94" s="10">
         <v>92</v>
       </c>
       <c r="B94" s="7" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" s="7">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A95" s="10">
         <v>93</v>
       </c>
       <c r="B95" s="7" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" s="7">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A96" s="10">
         <v>94</v>
       </c>
       <c r="B96" s="7" t="s">
@@ -2207,7 +2823,7 @@
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" s="7">
+      <c r="A97" s="10">
         <v>95</v>
       </c>
       <c r="B97" s="7" t="s">
@@ -2215,7 +2831,7 @@
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" s="7">
+      <c r="A98" s="10">
         <v>96</v>
       </c>
       <c r="B98" s="7" t="s">
@@ -2223,7 +2839,7 @@
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" s="7">
+      <c r="A99" s="10">
         <v>97</v>
       </c>
       <c r="B99" s="7" t="s">
@@ -2231,7 +2847,7 @@
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" s="7">
+      <c r="A100" s="10">
         <v>98</v>
       </c>
       <c r="B100" s="7" t="s">
@@ -2239,7 +2855,7 @@
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" s="7">
+      <c r="A101" s="10">
         <v>99</v>
       </c>
       <c r="B101" s="7" t="s">
@@ -2247,7 +2863,7 @@
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" s="7">
+      <c r="A102" s="10">
         <v>100</v>
       </c>
       <c r="B102" s="7" t="s">
@@ -2255,7 +2871,7 @@
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" s="7">
+      <c r="A103" s="10">
         <v>101</v>
       </c>
       <c r="B103" s="7" t="s">
@@ -2263,7 +2879,7 @@
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" s="7">
+      <c r="A104" s="10">
         <v>102</v>
       </c>
       <c r="B104" s="7" t="s">
@@ -2271,7 +2887,7 @@
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" s="7">
+      <c r="A105" s="10">
         <v>103</v>
       </c>
       <c r="B105" s="7" t="s">
@@ -2279,7 +2895,7 @@
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" s="7">
+      <c r="A106" s="10">
         <v>104</v>
       </c>
       <c r="B106" s="7" t="s">
@@ -2287,7 +2903,7 @@
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" s="7">
+      <c r="A107" s="10">
         <v>105</v>
       </c>
       <c r="B107" s="7" t="s">
@@ -2295,7 +2911,7 @@
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" s="7">
+      <c r="A108" s="10">
         <v>106</v>
       </c>
       <c r="B108" s="7" t="s">
@@ -2303,7 +2919,7 @@
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" s="7">
+      <c r="A109" s="10">
         <v>107</v>
       </c>
       <c r="B109" s="7" t="s">
@@ -2311,7 +2927,7 @@
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" s="7">
+      <c r="A110" s="10">
         <v>108</v>
       </c>
       <c r="B110" s="7" t="s">
@@ -2319,7 +2935,7 @@
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111" s="7">
+      <c r="A111" s="10">
         <v>109</v>
       </c>
       <c r="B111" s="7" t="s">
@@ -2327,7 +2943,7 @@
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" s="7">
+      <c r="A112" s="10">
         <v>110</v>
       </c>
       <c r="B112" s="7" t="s">
@@ -2335,7 +2951,7 @@
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113" s="7">
+      <c r="A113" s="10">
         <v>111</v>
       </c>
       <c r="B113" s="7" t="s">
@@ -2395,8 +3011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="T41" sqref="T41"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T45" sqref="T45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2416,45 +3032,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="E1" s="10" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="E1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="I1" s="10" t="s">
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="I1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="M1" s="10" t="s">
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="M1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -3468,712 +4084,712 @@
       <c r="O32" s="7"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" s="11" t="s">
+      <c r="A34" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="B34" s="11"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11"/>
-      <c r="J34" s="11"/>
-      <c r="K34" s="11"/>
-      <c r="L34" s="11"/>
-      <c r="M34" s="11"/>
-      <c r="N34" s="11"/>
-      <c r="O34" s="11"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="16"/>
+      <c r="L34" s="16"/>
+      <c r="M34" s="16"/>
+      <c r="N34" s="16"/>
+      <c r="O34" s="16"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35" s="13" t="s">
+      <c r="A35" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="B35" s="13">
+      <c r="B35" s="12">
         <v>3</v>
       </c>
-      <c r="C35" s="13">
+      <c r="C35" s="12">
         <v>24</v>
       </c>
-      <c r="D35" s="12"/>
-      <c r="E35" s="13" t="s">
+      <c r="D35" s="11"/>
+      <c r="E35" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="F35" s="13">
+      <c r="F35" s="12">
         <v>0</v>
       </c>
-      <c r="G35" s="13">
+      <c r="G35" s="12">
         <v>2</v>
       </c>
-      <c r="H35" s="12"/>
-      <c r="I35" s="13" t="s">
+      <c r="H35" s="11"/>
+      <c r="I35" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="J35" s="13">
+      <c r="J35" s="12">
         <v>14</v>
       </c>
-      <c r="K35" s="13">
+      <c r="K35" s="12">
         <v>38</v>
       </c>
-      <c r="L35" s="12"/>
-      <c r="M35" s="13" t="s">
+      <c r="L35" s="11"/>
+      <c r="M35" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="N35" s="13">
+      <c r="N35" s="12">
         <v>0</v>
       </c>
-      <c r="O35" s="13">
+      <c r="O35" s="12">
         <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A36" s="13" t="s">
+      <c r="A36" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="B36" s="13">
+      <c r="B36" s="12">
         <v>0</v>
       </c>
-      <c r="C36" s="13">
+      <c r="C36" s="12">
         <v>8</v>
       </c>
-      <c r="D36" s="12"/>
-      <c r="E36" s="13" t="s">
+      <c r="D36" s="11"/>
+      <c r="E36" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="F36" s="13">
+      <c r="F36" s="12">
         <v>0</v>
       </c>
-      <c r="G36" s="13">
+      <c r="G36" s="12">
         <v>18</v>
       </c>
-      <c r="H36" s="12"/>
-      <c r="I36" s="13" t="s">
+      <c r="H36" s="11"/>
+      <c r="I36" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="J36" s="14">
+      <c r="J36" s="13">
         <v>2</v>
       </c>
-      <c r="K36" s="14">
+      <c r="K36" s="13">
         <v>3</v>
       </c>
-      <c r="L36" s="12"/>
-      <c r="M36" s="13" t="s">
+      <c r="L36" s="11"/>
+      <c r="M36" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="N36" s="14">
+      <c r="N36" s="13">
         <v>0</v>
       </c>
-      <c r="O36" s="14">
+      <c r="O36" s="13">
         <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A37" s="13" t="s">
+      <c r="A37" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B37" s="13">
+      <c r="B37" s="12">
         <v>2</v>
       </c>
-      <c r="C37" s="13">
+      <c r="C37" s="12">
         <v>20</v>
       </c>
-      <c r="D37" s="12"/>
-      <c r="E37" s="13" t="s">
+      <c r="D37" s="11"/>
+      <c r="E37" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="F37" s="13">
+      <c r="F37" s="12">
         <v>0</v>
       </c>
-      <c r="G37" s="13">
+      <c r="G37" s="12">
         <v>8</v>
       </c>
-      <c r="H37" s="12"/>
-      <c r="I37" s="13" t="s">
+      <c r="H37" s="11"/>
+      <c r="I37" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="J37" s="14">
+      <c r="J37" s="13">
         <v>1</v>
       </c>
-      <c r="K37" s="14">
+      <c r="K37" s="13">
         <v>18</v>
       </c>
-      <c r="L37" s="12"/>
-      <c r="M37" s="13" t="s">
+      <c r="L37" s="11"/>
+      <c r="M37" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="N37" s="14">
+      <c r="N37" s="13">
         <v>2</v>
       </c>
-      <c r="O37" s="14">
+      <c r="O37" s="13">
         <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A38" s="13" t="s">
+      <c r="A38" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="B38" s="13">
+      <c r="B38" s="12">
         <v>1</v>
       </c>
-      <c r="C38" s="13">
+      <c r="C38" s="12">
         <v>31</v>
       </c>
-      <c r="D38" s="12"/>
-      <c r="E38" s="13" t="s">
+      <c r="D38" s="11"/>
+      <c r="E38" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="F38" s="13">
+      <c r="F38" s="12">
         <v>8</v>
       </c>
-      <c r="G38" s="13">
+      <c r="G38" s="12">
         <v>81</v>
       </c>
-      <c r="H38" s="12"/>
-      <c r="I38" s="13" t="s">
+      <c r="H38" s="11"/>
+      <c r="I38" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="J38" s="13">
+      <c r="J38" s="12">
         <v>3</v>
       </c>
-      <c r="K38" s="13">
+      <c r="K38" s="12">
         <v>27</v>
       </c>
-      <c r="L38" s="12"/>
-      <c r="M38" s="13" t="s">
+      <c r="L38" s="11"/>
+      <c r="M38" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="N38" s="14">
+      <c r="N38" s="13">
         <v>3</v>
       </c>
-      <c r="O38" s="14">
+      <c r="O38" s="13">
         <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A39" s="13" t="s">
+      <c r="A39" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="B39" s="13">
+      <c r="B39" s="12">
         <v>5</v>
       </c>
-      <c r="C39" s="13">
+      <c r="C39" s="12">
         <v>50</v>
       </c>
-      <c r="D39" s="12"/>
-      <c r="E39" s="13" t="s">
+      <c r="D39" s="11"/>
+      <c r="E39" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="F39" s="13">
+      <c r="F39" s="12">
         <v>0</v>
       </c>
-      <c r="G39" s="13">
+      <c r="G39" s="12">
         <v>3</v>
       </c>
-      <c r="H39" s="12"/>
-      <c r="I39" s="13" t="s">
+      <c r="H39" s="11"/>
+      <c r="I39" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="J39" s="13">
+      <c r="J39" s="12">
         <v>13</v>
       </c>
-      <c r="K39" s="13">
+      <c r="K39" s="12">
         <v>60</v>
       </c>
-      <c r="L39" s="12"/>
-      <c r="M39" s="13" t="s">
+      <c r="L39" s="11"/>
+      <c r="M39" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="N39" s="14">
+      <c r="N39" s="13">
         <v>3</v>
       </c>
-      <c r="O39" s="14">
+      <c r="O39" s="13">
         <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A40" s="13" t="s">
+      <c r="A40" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="B40" s="13">
+      <c r="B40" s="12">
         <v>0</v>
       </c>
-      <c r="C40" s="13">
+      <c r="C40" s="12">
         <v>2</v>
       </c>
-      <c r="D40" s="12"/>
-      <c r="E40" s="13" t="s">
+      <c r="D40" s="11"/>
+      <c r="E40" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="F40" s="13">
+      <c r="F40" s="12">
         <v>4</v>
       </c>
-      <c r="G40" s="13">
+      <c r="G40" s="12">
         <v>58</v>
       </c>
-      <c r="H40" s="12"/>
-      <c r="I40" s="13" t="s">
+      <c r="H40" s="11"/>
+      <c r="I40" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="J40" s="13">
+      <c r="J40" s="12">
         <v>0</v>
       </c>
-      <c r="K40" s="13">
+      <c r="K40" s="12">
         <v>7</v>
       </c>
-      <c r="L40" s="12"/>
-      <c r="M40" s="13" t="s">
+      <c r="L40" s="11"/>
+      <c r="M40" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="N40" s="13">
+      <c r="N40" s="12">
         <v>1</v>
       </c>
-      <c r="O40" s="13">
+      <c r="O40" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A41" s="13" t="s">
+      <c r="A41" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="B41" s="13">
+      <c r="B41" s="12">
         <v>7</v>
       </c>
-      <c r="C41" s="13">
+      <c r="C41" s="12">
         <v>33</v>
       </c>
-      <c r="D41" s="12"/>
-      <c r="E41" s="13" t="s">
+      <c r="D41" s="11"/>
+      <c r="E41" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="F41" s="14">
+      <c r="F41" s="13">
         <v>2</v>
       </c>
-      <c r="G41" s="14">
+      <c r="G41" s="13">
         <v>42</v>
       </c>
-      <c r="H41" s="12"/>
-      <c r="I41" s="13" t="s">
+      <c r="H41" s="11"/>
+      <c r="I41" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="J41" s="13">
+      <c r="J41" s="12">
         <v>0</v>
       </c>
-      <c r="K41" s="13">
+      <c r="K41" s="12">
         <v>13</v>
       </c>
-      <c r="L41" s="12"/>
-      <c r="M41" s="13" t="s">
+      <c r="L41" s="11"/>
+      <c r="M41" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="N41" s="14">
+      <c r="N41" s="13">
         <v>5</v>
       </c>
-      <c r="O41" s="14">
+      <c r="O41" s="13">
         <v>14</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A42" s="13" t="s">
+      <c r="A42" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="B42" s="13">
+      <c r="B42" s="12">
         <v>3</v>
       </c>
-      <c r="C42" s="13">
+      <c r="C42" s="12">
         <v>40</v>
       </c>
-      <c r="D42" s="12"/>
-      <c r="E42" s="13" t="s">
+      <c r="D42" s="11"/>
+      <c r="E42" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="F42" s="13">
+      <c r="F42" s="12">
         <v>0</v>
       </c>
-      <c r="G42" s="13">
+      <c r="G42" s="12">
         <v>15</v>
       </c>
-      <c r="H42" s="12"/>
-      <c r="I42" s="13" t="s">
+      <c r="H42" s="11"/>
+      <c r="I42" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="J42" s="13">
+      <c r="J42" s="12">
         <v>11</v>
       </c>
-      <c r="K42" s="13">
+      <c r="K42" s="12">
         <v>69</v>
       </c>
-      <c r="L42" s="12"/>
-      <c r="M42" s="13" t="s">
+      <c r="L42" s="11"/>
+      <c r="M42" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="N42" s="14">
+      <c r="N42" s="13">
         <v>0</v>
       </c>
-      <c r="O42" s="14">
+      <c r="O42" s="13">
         <v>22</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A43" s="13" t="s">
+      <c r="A43" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="B43" s="13">
+      <c r="B43" s="12">
         <v>5</v>
       </c>
-      <c r="C43" s="13">
+      <c r="C43" s="12">
         <v>27</v>
       </c>
-      <c r="D43" s="12"/>
-      <c r="E43" s="13" t="s">
+      <c r="D43" s="11"/>
+      <c r="E43" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="F43" s="13">
+      <c r="F43" s="12">
         <v>0</v>
       </c>
-      <c r="G43" s="13">
+      <c r="G43" s="12">
         <v>15</v>
       </c>
-      <c r="H43" s="12"/>
-      <c r="I43" s="13" t="s">
+      <c r="H43" s="11"/>
+      <c r="I43" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="J43" s="13">
+      <c r="J43" s="12">
         <v>3</v>
       </c>
-      <c r="K43" s="13">
+      <c r="K43" s="12">
         <v>47</v>
       </c>
-      <c r="L43" s="12"/>
-      <c r="M43" s="13" t="s">
+      <c r="L43" s="11"/>
+      <c r="M43" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="N43" s="13">
+      <c r="N43" s="12">
         <v>1</v>
       </c>
-      <c r="O43" s="13">
+      <c r="O43" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A44" s="13" t="s">
+      <c r="A44" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="B44" s="13">
+      <c r="B44" s="12">
         <v>13</v>
       </c>
-      <c r="C44" s="13">
+      <c r="C44" s="12">
         <v>48</v>
       </c>
-      <c r="D44" s="12"/>
-      <c r="E44" s="13" t="s">
+      <c r="D44" s="11"/>
+      <c r="E44" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="F44" s="13">
+      <c r="F44" s="12">
         <v>1</v>
       </c>
-      <c r="G44" s="13">
+      <c r="G44" s="12">
         <v>5</v>
       </c>
-      <c r="H44" s="12"/>
-      <c r="I44" s="13" t="s">
+      <c r="H44" s="11"/>
+      <c r="I44" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="J44" s="13">
+      <c r="J44" s="12">
         <v>0</v>
       </c>
-      <c r="K44" s="13">
+      <c r="K44" s="12">
         <v>2</v>
       </c>
-      <c r="L44" s="12"/>
-      <c r="M44" s="13" t="s">
+      <c r="L44" s="11"/>
+      <c r="M44" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="N44" s="14">
+      <c r="N44" s="13">
         <v>0</v>
       </c>
-      <c r="O44" s="14">
+      <c r="O44" s="13">
         <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A45" s="13" t="s">
+      <c r="A45" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="B45" s="13">
+      <c r="B45" s="12">
         <v>8</v>
       </c>
-      <c r="C45" s="13">
+      <c r="C45" s="12">
         <v>30</v>
       </c>
-      <c r="D45" s="12"/>
-      <c r="E45" s="13" t="s">
+      <c r="D45" s="11"/>
+      <c r="E45" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="F45" s="13">
+      <c r="F45" s="12">
         <v>6</v>
       </c>
-      <c r="G45" s="13">
+      <c r="G45" s="12">
         <v>48</v>
       </c>
-      <c r="H45" s="12"/>
-      <c r="I45" s="13" t="s">
+      <c r="H45" s="11"/>
+      <c r="I45" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="J45" s="13">
+      <c r="J45" s="12">
         <v>6</v>
       </c>
-      <c r="K45" s="13">
+      <c r="K45" s="12">
         <v>59</v>
       </c>
-      <c r="L45" s="12"/>
-      <c r="M45" s="13" t="s">
+      <c r="L45" s="11"/>
+      <c r="M45" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="N45" s="13">
+      <c r="N45" s="12">
         <v>3</v>
       </c>
-      <c r="O45" s="13">
+      <c r="O45" s="12">
         <v>47</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A46" s="13" t="s">
+      <c r="A46" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="B46" s="13">
+      <c r="B46" s="12">
         <v>0</v>
       </c>
-      <c r="C46" s="13">
+      <c r="C46" s="12">
         <v>8</v>
       </c>
-      <c r="D46" s="12"/>
-      <c r="E46" s="13" t="s">
+      <c r="D46" s="11"/>
+      <c r="E46" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="F46" s="13">
+      <c r="F46" s="12">
         <v>21</v>
       </c>
-      <c r="G46" s="13">
+      <c r="G46" s="12">
         <v>295</v>
       </c>
-      <c r="H46" s="12"/>
-      <c r="I46" s="13" t="s">
+      <c r="H46" s="11"/>
+      <c r="I46" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="J46" s="13">
+      <c r="J46" s="12">
         <v>12</v>
       </c>
-      <c r="K46" s="13">
+      <c r="K46" s="12">
         <v>66</v>
       </c>
-      <c r="L46" s="12"/>
-      <c r="M46" s="13" t="s">
+      <c r="L46" s="11"/>
+      <c r="M46" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="N46" s="13">
+      <c r="N46" s="12">
         <v>2</v>
       </c>
-      <c r="O46" s="13">
+      <c r="O46" s="12">
         <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A47" s="13" t="s">
+      <c r="A47" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="B47" s="13">
+      <c r="B47" s="12">
         <v>9</v>
       </c>
-      <c r="C47" s="13">
+      <c r="C47" s="12">
         <v>59</v>
       </c>
-      <c r="D47" s="12"/>
-      <c r="E47" s="12"/>
-      <c r="F47" s="12"/>
-      <c r="G47" s="12"/>
-      <c r="H47" s="12"/>
-      <c r="I47" s="13" t="s">
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="J47" s="14">
+      <c r="J47" s="13">
         <v>8</v>
       </c>
-      <c r="K47" s="14">
+      <c r="K47" s="13">
         <v>35</v>
       </c>
-      <c r="L47" s="12"/>
-      <c r="M47" s="13" t="s">
+      <c r="L47" s="11"/>
+      <c r="M47" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="N47" s="13">
+      <c r="N47" s="12">
         <v>2</v>
       </c>
-      <c r="O47" s="13">
+      <c r="O47" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A48" s="13" t="s">
+      <c r="A48" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="B48" s="13">
+      <c r="B48" s="12">
         <v>9</v>
       </c>
-      <c r="C48" s="13">
+      <c r="C48" s="12">
         <v>66</v>
       </c>
-      <c r="D48" s="12"/>
-      <c r="E48" s="12"/>
-      <c r="F48" s="12"/>
-      <c r="G48" s="12"/>
-      <c r="H48" s="12"/>
-      <c r="I48" s="13" t="s">
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="J48" s="13">
+      <c r="J48" s="12">
         <v>1</v>
       </c>
-      <c r="K48" s="13">
+      <c r="K48" s="12">
         <v>13</v>
       </c>
-      <c r="L48" s="12"/>
-      <c r="M48" s="13" t="s">
+      <c r="L48" s="11"/>
+      <c r="M48" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="N48" s="14">
+      <c r="N48" s="13">
         <v>22</v>
       </c>
-      <c r="O48" s="14">
+      <c r="O48" s="13">
         <v>187</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A49" s="13" t="s">
+      <c r="A49" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="B49" s="14">
+      <c r="B49" s="13">
         <v>3</v>
       </c>
-      <c r="C49" s="14">
+      <c r="C49" s="13">
         <v>2</v>
       </c>
-      <c r="D49" s="12"/>
-      <c r="E49" s="12"/>
-      <c r="F49" s="12"/>
-      <c r="G49" s="12"/>
-      <c r="H49" s="12"/>
-      <c r="I49" s="13" t="s">
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="J49" s="13">
+      <c r="J49" s="12">
         <v>13</v>
       </c>
-      <c r="K49" s="13">
+      <c r="K49" s="12">
         <v>87</v>
       </c>
-      <c r="L49" s="12"/>
-      <c r="M49" s="12"/>
-      <c r="N49" s="14"/>
-      <c r="O49" s="14"/>
+      <c r="L49" s="11"/>
+      <c r="M49" s="11"/>
+      <c r="N49" s="13"/>
+      <c r="O49" s="13"/>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A50" s="13" t="s">
+      <c r="A50" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B50" s="13">
+      <c r="B50" s="12">
         <v>68</v>
       </c>
-      <c r="C50" s="13">
+      <c r="C50" s="12">
         <v>448</v>
       </c>
-      <c r="D50" s="12"/>
-      <c r="E50" s="12"/>
-      <c r="F50" s="14"/>
-      <c r="G50" s="14"/>
-      <c r="H50" s="12"/>
-      <c r="I50" s="13" t="s">
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="13"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="J50" s="13">
+      <c r="J50" s="12">
         <v>2</v>
       </c>
-      <c r="K50" s="13">
+      <c r="K50" s="12">
         <v>3</v>
       </c>
-      <c r="L50" s="12"/>
-      <c r="M50" s="12"/>
-      <c r="N50" s="12"/>
-      <c r="O50" s="12"/>
+      <c r="L50" s="11"/>
+      <c r="M50" s="11"/>
+      <c r="N50" s="11"/>
+      <c r="O50" s="11"/>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="7"/>
-      <c r="B51" s="12"/>
-      <c r="C51" s="12"/>
-      <c r="D51" s="12"/>
-      <c r="E51" s="12"/>
-      <c r="F51" s="12"/>
-      <c r="G51" s="12"/>
-      <c r="H51" s="12"/>
-      <c r="I51" s="13" t="s">
+      <c r="B51" s="11"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="J51" s="13">
+      <c r="J51" s="12">
         <v>4</v>
       </c>
-      <c r="K51" s="13">
+      <c r="K51" s="12">
         <v>26</v>
       </c>
-      <c r="L51" s="12"/>
-      <c r="M51" s="12"/>
-      <c r="N51" s="12"/>
-      <c r="O51" s="12"/>
+      <c r="L51" s="11"/>
+      <c r="M51" s="11"/>
+      <c r="N51" s="11"/>
+      <c r="O51" s="11"/>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="7"/>
-      <c r="B52" s="12"/>
-      <c r="C52" s="12"/>
-      <c r="D52" s="12"/>
-      <c r="E52" s="12"/>
-      <c r="F52" s="14"/>
-      <c r="G52" s="14"/>
-      <c r="H52" s="12"/>
-      <c r="I52" s="13" t="s">
+      <c r="B52" s="11"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="13"/>
+      <c r="G52" s="13"/>
+      <c r="H52" s="11"/>
+      <c r="I52" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="J52" s="14">
+      <c r="J52" s="13">
         <v>5</v>
       </c>
-      <c r="K52" s="14">
+      <c r="K52" s="13">
         <v>40</v>
       </c>
-      <c r="L52" s="12"/>
-      <c r="M52" s="12"/>
-      <c r="N52" s="14"/>
-      <c r="O52" s="14"/>
+      <c r="L52" s="11"/>
+      <c r="M52" s="11"/>
+      <c r="N52" s="13"/>
+      <c r="O52" s="13"/>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="7"/>
-      <c r="B53" s="14"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="12"/>
-      <c r="E53" s="12"/>
-      <c r="F53" s="12"/>
-      <c r="G53" s="12"/>
-      <c r="H53" s="12"/>
-      <c r="I53" s="13" t="s">
+      <c r="B53" s="13"/>
+      <c r="C53" s="13"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="11"/>
+      <c r="H53" s="11"/>
+      <c r="I53" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="J53" s="14">
+      <c r="J53" s="13">
         <v>98</v>
       </c>
-      <c r="K53" s="14">
+      <c r="K53" s="13">
         <v>613</v>
       </c>
-      <c r="L53" s="12"/>
-      <c r="M53" s="12"/>
-      <c r="N53" s="14"/>
-      <c r="O53" s="14"/>
+      <c r="L53" s="11"/>
+      <c r="M53" s="11"/>
+      <c r="N53" s="13"/>
+      <c r="O53" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/5.23-5.29.xlsx
+++ b/5.23-5.29.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="掠夺总榜" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="200">
   <si>
     <t>ID</t>
   </si>
@@ -355,9 +355,6 @@
     <t>守护锋</t>
   </si>
   <si>
-    <t>机智勇敢的小猪</t>
-  </si>
-  <si>
     <t>折扇浪漫</t>
   </si>
   <si>
@@ -626,6 +623,15 @@
   </si>
   <si>
     <t>牛奶奶奶奶</t>
+  </si>
+  <si>
+    <t>帅金角</t>
+  </si>
+  <si>
+    <t>沐浠尘</t>
+  </si>
+  <si>
+    <t>帝古</t>
   </si>
 </sst>
 </file>
@@ -681,7 +687,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -715,6 +721,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1008,8 +1017,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S113"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1020,36 +1029,37 @@
     <col min="6" max="6" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6" style="10" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="10"/>
+    <col min="13" max="13" width="6" style="10" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="9.140625" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="E1" s="15" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="E1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="I1" s="15" t="s">
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="I1" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="M1" s="15" t="s">
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="M1" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="Q1" s="15" t="s">
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="Q1" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
     </row>
     <row r="2" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
@@ -1103,19 +1113,25 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E3" s="10">
         <v>1</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I3" s="14">
         <v>1</v>
       </c>
       <c r="J3" s="11" t="s">
         <v>86</v>
+      </c>
+      <c r="M3" s="10">
+        <v>1</v>
+      </c>
+      <c r="N3" s="11" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
@@ -1129,13 +1145,19 @@
         <v>2</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I4" s="14">
         <v>2</v>
       </c>
       <c r="J4" s="11" t="s">
         <v>82</v>
+      </c>
+      <c r="M4" s="10">
+        <v>2</v>
+      </c>
+      <c r="N4" s="11" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
@@ -1155,7 +1177,13 @@
         <v>3</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
+      </c>
+      <c r="M5" s="10">
+        <v>3</v>
+      </c>
+      <c r="N5" s="11" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
@@ -1163,7 +1191,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E6" s="10">
         <v>4</v>
@@ -1175,7 +1203,13 @@
         <v>4</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
+      </c>
+      <c r="M6" s="15">
+        <v>4</v>
+      </c>
+      <c r="N6" s="11" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
@@ -1189,13 +1223,19 @@
         <v>5</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I7" s="14">
         <v>5</v>
       </c>
       <c r="J7" s="11" t="s">
         <v>34</v>
+      </c>
+      <c r="M7" s="15">
+        <v>5</v>
+      </c>
+      <c r="N7" s="11" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
@@ -1215,7 +1255,13 @@
         <v>6</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>176</v>
+        <v>175</v>
+      </c>
+      <c r="M8" s="15">
+        <v>6</v>
+      </c>
+      <c r="N8" s="11" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
@@ -1223,7 +1269,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E9" s="10">
         <v>7</v>
@@ -1235,7 +1281,13 @@
         <v>7</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
+      </c>
+      <c r="M9" s="15">
+        <v>7</v>
+      </c>
+      <c r="N9" s="11" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
@@ -1255,7 +1307,13 @@
         <v>8</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>178</v>
+        <v>177</v>
+      </c>
+      <c r="M10" s="15">
+        <v>8</v>
+      </c>
+      <c r="N10" s="11" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
@@ -1263,19 +1321,25 @@
         <v>9</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E11" s="10">
         <v>9</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I11" s="14">
         <v>9</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>179</v>
+        <v>178</v>
+      </c>
+      <c r="M11" s="15">
+        <v>9</v>
+      </c>
+      <c r="N11" s="11" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
@@ -1283,7 +1347,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E12" s="10">
         <v>10</v>
@@ -1295,7 +1359,13 @@
         <v>10</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>180</v>
+        <v>179</v>
+      </c>
+      <c r="M12" s="15">
+        <v>10</v>
+      </c>
+      <c r="N12" s="11" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
@@ -1315,7 +1385,13 @@
         <v>11</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
+      </c>
+      <c r="M13" s="15">
+        <v>11</v>
+      </c>
+      <c r="N13" s="11" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
@@ -1323,19 +1399,25 @@
         <v>12</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E14" s="10">
         <v>12</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I14" s="14">
         <v>12</v>
       </c>
       <c r="J14" s="11" t="s">
         <v>102</v>
+      </c>
+      <c r="M14" s="15">
+        <v>12</v>
+      </c>
+      <c r="N14" s="11" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
@@ -1357,6 +1439,12 @@
       <c r="J15" s="11" t="s">
         <v>98</v>
       </c>
+      <c r="M15" s="15">
+        <v>13</v>
+      </c>
+      <c r="N15" s="11" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
@@ -1377,13 +1465,19 @@
       <c r="J16" s="11" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M16" s="15">
+        <v>14</v>
+      </c>
+      <c r="N16" s="11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
         <v>15</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E17" s="10">
         <v>15</v>
@@ -1397,8 +1491,14 @@
       <c r="J17" s="11" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M17" s="15">
+        <v>15</v>
+      </c>
+      <c r="N17" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
         <v>16</v>
       </c>
@@ -1415,10 +1515,16 @@
         <v>16</v>
       </c>
       <c r="J18" s="11" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+      <c r="M18" s="15">
+        <v>16</v>
+      </c>
+      <c r="N18" s="11" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="10">
         <v>17</v>
       </c>
@@ -1437,13 +1543,19 @@
       <c r="J19" s="11" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M19" s="15">
+        <v>17</v>
+      </c>
+      <c r="N19" s="11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="10">
         <v>18</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E20" s="10">
         <v>18</v>
@@ -1455,15 +1567,21 @@
         <v>18</v>
       </c>
       <c r="J20" s="11" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+      <c r="M20" s="15">
+        <v>18</v>
+      </c>
+      <c r="N20" s="11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="10">
         <v>19</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E21" s="10">
         <v>19</v>
@@ -1477,8 +1595,14 @@
       <c r="J21" s="11" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M21" s="15">
+        <v>19</v>
+      </c>
+      <c r="N21" s="11" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="10">
         <v>20</v>
       </c>
@@ -1489,16 +1613,22 @@
         <v>20</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I22" s="14">
         <v>20</v>
       </c>
       <c r="J22" s="11" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+      <c r="M22" s="15">
+        <v>20</v>
+      </c>
+      <c r="N22" s="11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="10">
         <v>21</v>
       </c>
@@ -1515,10 +1645,16 @@
         <v>21</v>
       </c>
       <c r="J23" s="11" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+      <c r="M23" s="15">
+        <v>21</v>
+      </c>
+      <c r="N23" s="11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="10">
         <v>22</v>
       </c>
@@ -1537,8 +1673,14 @@
       <c r="J24" s="11" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M24" s="15">
+        <v>22</v>
+      </c>
+      <c r="N24" s="11" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="10">
         <v>23</v>
       </c>
@@ -1557,19 +1699,25 @@
       <c r="J25" s="11" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M25" s="15">
+        <v>23</v>
+      </c>
+      <c r="N25" s="11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="10">
         <v>24</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E26" s="10">
         <v>24</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I26" s="14">
         <v>24</v>
@@ -1577,8 +1725,14 @@
       <c r="J26" s="11" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M26" s="15">
+        <v>24</v>
+      </c>
+      <c r="N26" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="10">
         <v>25</v>
       </c>
@@ -1595,10 +1749,16 @@
         <v>25</v>
       </c>
       <c r="J27" s="11" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+      <c r="M27" s="15">
+        <v>25</v>
+      </c>
+      <c r="N27" s="11" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="10">
         <v>26</v>
       </c>
@@ -1609,16 +1769,22 @@
         <v>26</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I28" s="14">
         <v>26</v>
       </c>
       <c r="J28" s="11" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+      <c r="M28" s="15">
+        <v>26</v>
+      </c>
+      <c r="N28" s="11" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="10">
         <v>27</v>
       </c>
@@ -1629,16 +1795,22 @@
         <v>27</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I29" s="14">
         <v>27</v>
       </c>
       <c r="J29" s="11" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+      <c r="M29" s="15">
+        <v>27</v>
+      </c>
+      <c r="N29" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="10">
         <v>28</v>
       </c>
@@ -1657,19 +1829,25 @@
       <c r="J30" s="11" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M30" s="15">
+        <v>28</v>
+      </c>
+      <c r="N30" s="11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="10">
         <v>29</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E31" s="10">
         <v>29</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I31" s="14">
         <v>29</v>
@@ -1677,8 +1855,14 @@
       <c r="J31" s="11" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M31" s="15">
+        <v>29</v>
+      </c>
+      <c r="N31" s="11" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="10">
         <v>30</v>
       </c>
@@ -1697,13 +1881,19 @@
       <c r="J32" s="11" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M32" s="15">
+        <v>30</v>
+      </c>
+      <c r="N32" s="11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="10">
         <v>31</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E33" s="10">
         <v>31</v>
@@ -1715,10 +1905,16 @@
         <v>31</v>
       </c>
       <c r="J33" s="11" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+      <c r="M33" s="15">
+        <v>31</v>
+      </c>
+      <c r="N33" s="11" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="10">
         <v>32</v>
       </c>
@@ -1729,7 +1925,7 @@
         <v>32</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>107</v>
+        <v>180</v>
       </c>
       <c r="I34" s="14">
         <v>32</v>
@@ -1737,8 +1933,14 @@
       <c r="J34" s="11" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M34" s="15">
+        <v>32</v>
+      </c>
+      <c r="N34" s="11" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="10">
         <v>33</v>
       </c>
@@ -1755,21 +1957,27 @@
         <v>33</v>
       </c>
       <c r="J35" s="11" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+      <c r="M35" s="15">
+        <v>33</v>
+      </c>
+      <c r="N35" s="11" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="10">
         <v>34</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E36" s="10">
         <v>34</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I36" s="14">
         <v>34</v>
@@ -1777,8 +1985,14 @@
       <c r="J36" s="11" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M36" s="15">
+        <v>34</v>
+      </c>
+      <c r="N36" s="11" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="10">
         <v>35</v>
       </c>
@@ -1789,21 +2003,27 @@
         <v>35</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I37" s="14">
         <v>35</v>
       </c>
       <c r="J37" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+      <c r="M37" s="15">
+        <v>35</v>
+      </c>
+      <c r="N37" s="11" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="10">
         <v>36</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E38" s="10">
         <v>36</v>
@@ -1815,35 +2035,47 @@
         <v>36</v>
       </c>
       <c r="J38" s="11" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+      <c r="M38" s="15">
+        <v>36</v>
+      </c>
+      <c r="N38" s="11" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="10">
         <v>37</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E39" s="10">
         <v>37</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I39" s="14">
         <v>37</v>
       </c>
       <c r="J39" s="11" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+      <c r="M39" s="15">
+        <v>37</v>
+      </c>
+      <c r="N39" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="10">
         <v>38</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E40" s="10">
         <v>38</v>
@@ -1855,10 +2087,16 @@
         <v>38</v>
       </c>
       <c r="J40" s="11" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+      <c r="M40" s="15">
+        <v>38</v>
+      </c>
+      <c r="N40" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="10">
         <v>39</v>
       </c>
@@ -1875,10 +2113,16 @@
         <v>39</v>
       </c>
       <c r="J41" s="11" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+      <c r="M41" s="15">
+        <v>39</v>
+      </c>
+      <c r="N41" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="10">
         <v>40</v>
       </c>
@@ -1889,7 +2133,7 @@
         <v>40</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I42" s="14">
         <v>40</v>
@@ -1897,19 +2141,25 @@
       <c r="J42" s="11" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M42" s="15">
+        <v>40</v>
+      </c>
+      <c r="N42" s="11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="10">
         <v>41</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E43" s="10">
         <v>41</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I43" s="14">
         <v>41</v>
@@ -1917,19 +2167,25 @@
       <c r="J43" s="11" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M43" s="15">
+        <v>41</v>
+      </c>
+      <c r="N43" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="10">
         <v>42</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E44" s="10">
         <v>42</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I44" s="14">
         <v>42</v>
@@ -1937,8 +2193,14 @@
       <c r="J44" s="11" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M44" s="15">
+        <v>42</v>
+      </c>
+      <c r="N44" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="10">
         <v>43</v>
       </c>
@@ -1957,8 +2219,14 @@
       <c r="J45" s="11" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M45" s="15">
+        <v>43</v>
+      </c>
+      <c r="N45" s="11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="10">
         <v>44</v>
       </c>
@@ -1969,7 +2237,7 @@
         <v>44</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I46" s="14">
         <v>44</v>
@@ -1977,8 +2245,14 @@
       <c r="J46" s="11" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M46" s="15">
+        <v>44</v>
+      </c>
+      <c r="N46" s="11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="10">
         <v>45</v>
       </c>
@@ -1989,7 +2263,7 @@
         <v>45</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I47" s="14">
         <v>45</v>
@@ -1997,19 +2271,25 @@
       <c r="J47" s="11" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M47" s="15">
+        <v>45</v>
+      </c>
+      <c r="N47" s="11" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="10">
         <v>46</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>107</v>
+        <v>180</v>
       </c>
       <c r="E48" s="10">
         <v>46</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I48" s="14">
         <v>46</v>
@@ -2017,8 +2297,14 @@
       <c r="J48" s="11" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M48" s="15">
+        <v>46</v>
+      </c>
+      <c r="N48" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="10">
         <v>47</v>
       </c>
@@ -2035,15 +2321,21 @@
         <v>47</v>
       </c>
       <c r="J49" s="11" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+      <c r="M49" s="15">
+        <v>47</v>
+      </c>
+      <c r="N49" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="10">
         <v>48</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E50" s="10">
         <v>48</v>
@@ -2055,35 +2347,47 @@
         <v>48</v>
       </c>
       <c r="J50" s="11" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+      <c r="M50" s="15">
+        <v>48</v>
+      </c>
+      <c r="N50" s="11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="10">
         <v>49</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E51" s="10">
         <v>49</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I51" s="14">
         <v>49</v>
       </c>
       <c r="J51" s="11" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+      <c r="M51" s="15">
+        <v>49</v>
+      </c>
+      <c r="N51" s="11" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="10">
         <v>50</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E52" s="10">
         <v>50</v>
@@ -2097,8 +2401,14 @@
       <c r="J52" s="11" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M52" s="15">
+        <v>50</v>
+      </c>
+      <c r="N52" s="11" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="10">
         <v>51</v>
       </c>
@@ -2109,21 +2419,27 @@
         <v>51</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I53" s="14">
         <v>51</v>
       </c>
       <c r="J53" s="11" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+      <c r="M53" s="15">
+        <v>51</v>
+      </c>
+      <c r="N53" s="11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="10">
         <v>52</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E54" s="10">
         <v>52</v>
@@ -2135,15 +2451,21 @@
         <v>52</v>
       </c>
       <c r="J54" s="11" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+      <c r="M54" s="15">
+        <v>52</v>
+      </c>
+      <c r="N54" s="11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="10">
         <v>53</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E55" s="10">
         <v>53</v>
@@ -2157,8 +2479,14 @@
       <c r="J55" s="11" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M55" s="15">
+        <v>53</v>
+      </c>
+      <c r="N55" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="10">
         <v>54</v>
       </c>
@@ -2169,16 +2497,22 @@
         <v>54</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I56" s="14">
         <v>54</v>
       </c>
       <c r="J56" s="11" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+      <c r="M56" s="15">
+        <v>54</v>
+      </c>
+      <c r="N56" s="11" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="10">
         <v>55</v>
       </c>
@@ -2195,15 +2529,21 @@
         <v>55</v>
       </c>
       <c r="J57" s="11" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+      <c r="M57" s="15">
+        <v>55</v>
+      </c>
+      <c r="N57" s="11" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" s="10">
         <v>56</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E58" s="10">
         <v>56</v>
@@ -2215,15 +2555,21 @@
         <v>56</v>
       </c>
       <c r="J58" s="11" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+      <c r="M58" s="15">
+        <v>56</v>
+      </c>
+      <c r="N58" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="10">
         <v>57</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E59" s="10">
         <v>57</v>
@@ -2235,10 +2581,16 @@
         <v>57</v>
       </c>
       <c r="J59" s="11" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+      <c r="M59" s="15">
+        <v>57</v>
+      </c>
+      <c r="N59" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" s="10">
         <v>58</v>
       </c>
@@ -2249,7 +2601,7 @@
         <v>58</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I60" s="14">
         <v>58</v>
@@ -2257,13 +2609,19 @@
       <c r="J60" s="11" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M60" s="15">
+        <v>58</v>
+      </c>
+      <c r="N60" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" s="10">
         <v>59</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E61" s="10">
         <v>59</v>
@@ -2275,15 +2633,21 @@
         <v>59</v>
       </c>
       <c r="J61" s="11" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+      <c r="M61" s="15">
+        <v>59</v>
+      </c>
+      <c r="N61" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" s="10">
         <v>60</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E62" s="10">
         <v>60</v>
@@ -2295,15 +2659,21 @@
         <v>60</v>
       </c>
       <c r="J62" s="11" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+      <c r="M62" s="15">
+        <v>60</v>
+      </c>
+      <c r="N62" s="11" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" s="10">
         <v>61</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E63" s="10">
         <v>61</v>
@@ -2315,15 +2685,21 @@
         <v>61</v>
       </c>
       <c r="J63" s="11" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+      <c r="M63" s="15">
+        <v>61</v>
+      </c>
+      <c r="N63" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" s="10">
         <v>62</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E64" s="10">
         <v>62</v>
@@ -2335,10 +2711,16 @@
         <v>62</v>
       </c>
       <c r="J64" s="11" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+      <c r="M64" s="15">
+        <v>62</v>
+      </c>
+      <c r="N64" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" s="10">
         <v>63</v>
       </c>
@@ -2357,39 +2739,51 @@
       <c r="J65" s="11" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M65" s="15">
+        <v>63</v>
+      </c>
+      <c r="N65" s="11" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" s="10">
         <v>64</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E66" s="10">
         <v>64</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I66" s="14">
         <v>64</v>
       </c>
       <c r="J66" s="11" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+      <c r="M66" s="15">
+        <v>64</v>
+      </c>
+      <c r="N66" s="11" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" s="10">
         <v>65</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E67" s="10">
         <v>65</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I67" s="14">
         <v>65</v>
@@ -2397,13 +2791,19 @@
       <c r="J67" s="11" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M67" s="15">
+        <v>65</v>
+      </c>
+      <c r="N67" s="11" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" s="10">
         <v>66</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E68" s="10">
         <v>66</v>
@@ -2417,8 +2817,14 @@
       <c r="J68" s="11" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M68" s="15">
+        <v>66</v>
+      </c>
+      <c r="N68" s="11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" s="10">
         <v>67</v>
       </c>
@@ -2429,21 +2835,27 @@
         <v>67</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I69" s="14">
         <v>67</v>
       </c>
       <c r="J69" s="11" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+      <c r="M69" s="15">
+        <v>67</v>
+      </c>
+      <c r="N69" s="11" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" s="10">
         <v>68</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E70" s="10">
         <v>68</v>
@@ -2455,15 +2867,21 @@
         <v>68</v>
       </c>
       <c r="J70" s="11" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+      <c r="M70" s="15">
+        <v>68</v>
+      </c>
+      <c r="N70" s="11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" s="10">
         <v>69</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E71" s="10">
         <v>69</v>
@@ -2475,21 +2893,27 @@
         <v>69</v>
       </c>
       <c r="J71" s="11" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+      <c r="M71" s="15">
+        <v>69</v>
+      </c>
+      <c r="N71" s="11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" s="10">
         <v>70</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E72" s="10">
         <v>70</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I72" s="14">
         <v>70</v>
@@ -2497,28 +2921,40 @@
       <c r="J72" s="11" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M72" s="15">
+        <v>70</v>
+      </c>
+      <c r="N72" s="11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" s="10">
         <v>71</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E73" s="10">
         <v>71</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I73" s="14">
         <v>71</v>
       </c>
       <c r="J73" s="11" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+      <c r="M73" s="15">
+        <v>71</v>
+      </c>
+      <c r="N73" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" s="10">
         <v>72</v>
       </c>
@@ -2529,24 +2965,36 @@
         <v>72</v>
       </c>
       <c r="J74" s="11" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+      <c r="M74" s="15">
+        <v>72</v>
+      </c>
+      <c r="N74" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" s="10">
         <v>73</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I75" s="14">
         <v>73</v>
       </c>
       <c r="J75" s="11" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+      <c r="M75" s="15">
+        <v>73</v>
+      </c>
+      <c r="N75" s="11" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" s="10">
         <v>74</v>
       </c>
@@ -2559,22 +3007,34 @@
       <c r="J76" s="11" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M76" s="15">
+        <v>74</v>
+      </c>
+      <c r="N76" s="11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" s="10">
         <v>75</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I77" s="14">
         <v>75</v>
       </c>
       <c r="J77" s="11" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+      <c r="M77" s="15">
+        <v>75</v>
+      </c>
+      <c r="N77" s="11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" s="10">
         <v>76</v>
       </c>
@@ -2587,13 +3047,19 @@
       <c r="J78" s="11" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M78" s="15">
+        <v>76</v>
+      </c>
+      <c r="N78" s="11" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" s="10">
         <v>77</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I79" s="14">
         <v>77</v>
@@ -2602,7 +3068,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" s="10">
         <v>78</v>
       </c>
@@ -2613,7 +3079,7 @@
         <v>78</v>
       </c>
       <c r="J80" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
@@ -2621,13 +3087,13 @@
         <v>79</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I81" s="14">
         <v>79</v>
       </c>
       <c r="J81" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
@@ -2641,7 +3107,7 @@
         <v>80</v>
       </c>
       <c r="J82" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
@@ -2649,7 +3115,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I83" s="14">
         <v>81</v>
@@ -2663,7 +3129,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I84" s="14">
         <v>82</v>
@@ -2683,7 +3149,7 @@
         <v>83</v>
       </c>
       <c r="J85" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
@@ -2697,7 +3163,7 @@
         <v>84</v>
       </c>
       <c r="J86" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
@@ -2711,7 +3177,7 @@
         <v>85</v>
       </c>
       <c r="J87" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
@@ -2719,13 +3185,13 @@
         <v>86</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I88" s="14">
         <v>86</v>
       </c>
       <c r="J88" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
@@ -2739,7 +3205,7 @@
         <v>87</v>
       </c>
       <c r="J89" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
@@ -2753,7 +3219,7 @@
         <v>88</v>
       </c>
       <c r="J90" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
@@ -2789,7 +3255,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I93" s="14">
         <v>91</v>
@@ -2803,7 +3269,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
@@ -2811,7 +3277,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
@@ -2851,7 +3317,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
@@ -2859,7 +3325,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
@@ -2867,7 +3333,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
@@ -2883,7 +3349,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
@@ -2899,7 +3365,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
@@ -2915,7 +3381,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
@@ -2931,7 +3397,7 @@
         <v>108</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
@@ -2939,7 +3405,7 @@
         <v>109</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
@@ -2947,7 +3413,7 @@
         <v>110</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
@@ -2955,7 +3421,7 @@
         <v>111</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -3032,45 +3498,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="E1" s="15" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="E1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="I1" s="15" t="s">
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="I1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="M1" s="15" t="s">
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="M1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -4084,27 +4550,27 @@
       <c r="O32" s="7"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" s="16" t="s">
-        <v>177</v>
-      </c>
-      <c r="B34" s="16"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="16"/>
-      <c r="I34" s="16"/>
-      <c r="J34" s="16"/>
-      <c r="K34" s="16"/>
-      <c r="L34" s="16"/>
-      <c r="M34" s="16"/>
-      <c r="N34" s="16"/>
-      <c r="O34" s="16"/>
+      <c r="A34" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="17"/>
+      <c r="J34" s="17"/>
+      <c r="K34" s="17"/>
+      <c r="L34" s="17"/>
+      <c r="M34" s="17"/>
+      <c r="N34" s="17"/>
+      <c r="O34" s="17"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B35" s="12">
         <v>3</v>
@@ -4114,7 +4580,7 @@
       </c>
       <c r="D35" s="11"/>
       <c r="E35" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F35" s="12">
         <v>0</v>
@@ -4134,7 +4600,7 @@
       </c>
       <c r="L35" s="11"/>
       <c r="M35" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="N35" s="12">
         <v>0</v>
@@ -4145,7 +4611,7 @@
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B36" s="12">
         <v>0</v>
@@ -4155,7 +4621,7 @@
       </c>
       <c r="D36" s="11"/>
       <c r="E36" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F36" s="12">
         <v>0</v>
@@ -4196,7 +4662,7 @@
       </c>
       <c r="D37" s="11"/>
       <c r="E37" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F37" s="12">
         <v>0</v>
@@ -4206,7 +4672,7 @@
       </c>
       <c r="H37" s="11"/>
       <c r="I37" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J37" s="13">
         <v>1</v>
@@ -4216,7 +4682,7 @@
       </c>
       <c r="L37" s="11"/>
       <c r="M37" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="N37" s="13">
         <v>2</v>
@@ -4268,7 +4734,7 @@
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B39" s="12">
         <v>5</v>
@@ -4278,7 +4744,7 @@
       </c>
       <c r="D39" s="11"/>
       <c r="E39" s="12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F39" s="12">
         <v>0</v>
@@ -4298,7 +4764,7 @@
       </c>
       <c r="L39" s="11"/>
       <c r="M39" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="N39" s="13">
         <v>3</v>
@@ -4319,7 +4785,7 @@
       </c>
       <c r="D40" s="11"/>
       <c r="E40" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F40" s="12">
         <v>4</v>
@@ -4339,7 +4805,7 @@
       </c>
       <c r="L40" s="11"/>
       <c r="M40" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N40" s="12">
         <v>1</v>
@@ -4350,7 +4816,7 @@
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B41" s="12">
         <v>7</v>
@@ -4380,7 +4846,7 @@
       </c>
       <c r="L41" s="11"/>
       <c r="M41" s="12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="N41" s="13">
         <v>5</v>
@@ -4391,7 +4857,7 @@
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B42" s="12">
         <v>3</v>
@@ -4401,7 +4867,7 @@
       </c>
       <c r="D42" s="11"/>
       <c r="E42" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F42" s="12">
         <v>0</v>
@@ -4421,7 +4887,7 @@
       </c>
       <c r="L42" s="11"/>
       <c r="M42" s="12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="N42" s="13">
         <v>0</v>
@@ -4432,7 +4898,7 @@
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B43" s="12">
         <v>5</v>
@@ -4442,7 +4908,7 @@
       </c>
       <c r="D43" s="11"/>
       <c r="E43" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F43" s="12">
         <v>0</v>
@@ -4452,7 +4918,7 @@
       </c>
       <c r="H43" s="11"/>
       <c r="I43" s="12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J43" s="12">
         <v>3</v>
@@ -4473,7 +4939,7 @@
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="12" t="s">
-        <v>107</v>
+        <v>180</v>
       </c>
       <c r="B44" s="12">
         <v>13</v>
@@ -4483,7 +4949,7 @@
       </c>
       <c r="D44" s="11"/>
       <c r="E44" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F44" s="12">
         <v>1</v>
@@ -4493,7 +4959,7 @@
       </c>
       <c r="H44" s="11"/>
       <c r="I44" s="12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J44" s="12">
         <v>0</v>
@@ -4555,7 +5021,7 @@
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B46" s="12">
         <v>0</v>
@@ -4620,7 +5086,7 @@
       </c>
       <c r="L47" s="11"/>
       <c r="M47" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N47" s="12">
         <v>2</v>
@@ -4709,7 +5175,7 @@
       <c r="G50" s="13"/>
       <c r="H50" s="11"/>
       <c r="I50" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J50" s="12">
         <v>2</v>
@@ -4809,7 +5275,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T3" sqref="T3:T4"/>
+      <selection activeCell="B2" sqref="B2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4893,8 +5359,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4937,15 +5403,33 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B2" s="5"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
+      <c r="A2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="5">
+        <f>COUNTIF(掠夺总榜!A$1:S$150,$A2)</f>
+        <v>3</v>
+      </c>
+      <c r="C2" s="15">
+        <f>COUNTIF(盟会战!A$1:Q$150,$A2)</f>
+        <v>0</v>
+      </c>
+      <c r="D2" s="15">
+        <f>COUNTIF(帮战总榜!A$1:O$150,$A2)</f>
+        <v>2</v>
+      </c>
+      <c r="E2" s="15">
+        <f>SUM(B2:D2)</f>
+        <v>5</v>
+      </c>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15">
+        <f>IF($E2&gt;6,6,$E2)</f>
+        <v>5</v>
+      </c>
       <c r="I2" s="3">
         <f>SUM(G2:G150)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J2" s="3">
         <f>SUM(E2:E150)-I2</f>
@@ -5134,7 +5618,7 @@
       </c>
       <c r="B2" s="2">
         <f>('如梦-箱子'!$I$2)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C2" s="2">
         <f>('若梦-箱子'!$I$2)</f>
@@ -5146,7 +5630,7 @@
       </c>
       <c r="E2" s="2">
         <f>SUM(A2:D2)</f>
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
